--- a/demonstration_output/batch_test/0511-N-extra_iter9.xlsx
+++ b/demonstration_output/batch_test/0511-N-extra_iter9.xlsx
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D8" t="str">
         <v>1.0</v>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D9" t="str">
         <v>2</v>
@@ -533,7 +533,7 @@
         <v>256</v>
       </c>
       <c r="G9" t="str">
-        <v>12288.00</v>
+        <v>5376.00</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D10" t="str">
         <v>3</v>
@@ -562,7 +562,7 @@
         <v>472</v>
       </c>
       <c r="G10" t="str">
-        <v>8496.00</v>
+        <v>5664.00</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D11" t="str">
         <v>4</v>
@@ -591,7 +591,7 @@
         <v>662</v>
       </c>
       <c r="G11" t="str">
-        <v>5296.00</v>
+        <v>31114.00</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="D12" t="str">
         <v>2.0</v>
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D13" t="str">
         <v>6</v>
@@ -649,7 +649,7 @@
         <v>136</v>
       </c>
       <c r="G13" t="str">
-        <v>4352.00</v>
+        <v>9928.00</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D14" t="str">
         <v>3.0</v>
@@ -678,7 +678,7 @@
         <v>23</v>
       </c>
       <c r="G14" t="str">
-        <v>851.00</v>
+        <v>138.00</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D15" t="str">
         <v>8</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="D16" t="str">
         <v>9</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D17" t="str">
         <v>10</v>
@@ -799,10 +799,10 @@
         <v/>
       </c>
       <c r="G19" t="str">
-        <v>31283.00</v>
+        <v>52220.00</v>
       </c>
       <c r="H19" t="str">
-        <v>31283.00</v>
+        <v>52220.00</v>
       </c>
       <c r="I19" t="str">
         <v/>
@@ -857,10 +857,10 @@
         <v/>
       </c>
       <c r="G21" t="str">
-        <v>31283.00</v>
+        <v>52220.00</v>
       </c>
       <c r="H21" t="str">
-        <v>31283.00</v>
+        <v>52220.00</v>
       </c>
       <c r="I21" t="str">
         <v/>

--- a/demonstration_output/batch_test/0511-N-extra_iter9.xlsx
+++ b/demonstration_output/batch_test/0511-N-extra_iter9.xlsx
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D8" t="str">
         <v>1.0</v>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="D9" t="str">
         <v>2</v>
@@ -533,7 +533,7 @@
         <v>256</v>
       </c>
       <c r="G9" t="str">
-        <v>5376.00</v>
+        <v>24320.00</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="D10" t="str">
         <v>3</v>
@@ -562,7 +562,7 @@
         <v>472</v>
       </c>
       <c r="G10" t="str">
-        <v>5664.00</v>
+        <v>40120.00</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D11" t="str">
         <v>4</v>
@@ -591,7 +591,7 @@
         <v>662</v>
       </c>
       <c r="G11" t="str">
-        <v>31114.00</v>
+        <v>41706.00</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D12" t="str">
         <v>2.0</v>
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D13" t="str">
         <v>6</v>
@@ -649,7 +649,7 @@
         <v>136</v>
       </c>
       <c r="G13" t="str">
-        <v>9928.00</v>
+        <v>12240.00</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D14" t="str">
         <v>3.0</v>
@@ -678,7 +678,7 @@
         <v>23</v>
       </c>
       <c r="G14" t="str">
-        <v>138.00</v>
+        <v>414.00</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D15" t="str">
         <v>8</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D16" t="str">
         <v>9</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="D17" t="str">
         <v>10</v>
@@ -799,10 +799,10 @@
         <v/>
       </c>
       <c r="G19" t="str">
-        <v>52220.00</v>
+        <v>118800.00</v>
       </c>
       <c r="H19" t="str">
-        <v>52220.00</v>
+        <v>118800.00</v>
       </c>
       <c r="I19" t="str">
         <v/>
@@ -857,10 +857,10 @@
         <v/>
       </c>
       <c r="G21" t="str">
-        <v>52220.00</v>
+        <v>118800.00</v>
       </c>
       <c r="H21" t="str">
-        <v>52220.00</v>
+        <v>118800.00</v>
       </c>
       <c r="I21" t="str">
         <v/>
